--- a/biology/Botanique/Shinobu_Akiyama/Shinobu_Akiyama.xlsx
+++ b/biology/Botanique/Shinobu_Akiyama/Shinobu_Akiyama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shinobu Akiyama (秋山 忍[1],[2] née en 1957 à Tokyo) est une botaniste japonaise qui travaille au jardin botanique de Tsukuba. Elle est spécialiste de la taxonomie des spermatophytes, en particulier du plateau tibétain et des montagnes himalayennes[3],[4],[5],[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shinobu Akiyama (秋山 忍, née en 1957 à Tokyo) est une botaniste japonaise qui travaille au jardin botanique de Tsukuba. Elle est spécialiste de la taxonomie des spermatophytes, en particulier du plateau tibétain et des montagnes himalayennes.
 L'abréviation S.Akiyama est utilisée pour la mentionner comme auteur, lors de la référence à un nom de plante.
-En mars 2019, elle est l'autrice ou l'une des auteurs de 170 noms de taxons dans l'International Plant Names Index, une importante base de données sur les noms des végétaux[8].
+En mars 2019, elle est l'autrice ou l'une des auteurs de 170 noms de taxons dans l'International Plant Names Index, une importante base de données sur les noms des végétaux.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Shinobu Akiyama, Revision of the genus lespedeza section macrolespedeza., Univ Of Tokyo Press, 1988 (ISBN 9780860084297, OCLC 233618928)
 (en) Shinobu Akiyama et Mark F Watson, Flora of Nepal. Vol. 3 Vol. 3, Royal Botanic Garden Edinburgh, 2011 (ISBN 9781906129798, OCLC 838869663)
